--- a/UIImage 성능 분석.xlsx
+++ b/UIImage 성능 분석.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanheekim/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/UIImagePerformanceTest-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6600C90A-2B0F-6840-A507-AF7E80D87BD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE78CB0-4264-5E46-97F4-D4FCCC56C546}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2580" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{AAAA0977-50B4-C242-A08F-E61BD891D217}"/>
+    <workbookView xWindow="-4400" yWindow="-21140" windowWidth="19200" windowHeight="21140" xr2:uid="{AAAA0977-50B4-C242-A08F-E61BD891D217}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$18</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$18</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$7</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>[First Load Speed] Folder vs Asset on UIImage(named:)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Folder</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,11 +58,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>최악의 경우, Folder + named vs Asset + compatibleWith</t>
+    <t>캐싱 성능 동일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐싱 성능 동일</t>
+    <t>호출 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIImage(named:)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 목적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 초기 로드 속도 비교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 갯수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 회차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회차당 10개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N개의 이미지를 N번 배열에 추가한 전체 시간을 측정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIImage(named:in:compatibleWith:)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -87,20 +134,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF00B050"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF0070C0"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -137,6 +170,18 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,72 +286,81 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -323,6 +377,898 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.51585470438999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1F2-8344-9DE2-2F78129872F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4713501930000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1F2-8344-9DE2-2F78129872F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1905677984"/>
+        <c:axId val="1905679664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1905677984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905679664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1905679664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905677984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E55388F-E162-5540-B89A-5F7A5B1DE122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF02608-FF0C-B246-825D-48FD795EA590}">
-  <dimension ref="C5:I42"/>
+  <dimension ref="C1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -636,351 +1582,463 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:9">
-      <c r="C5" s="3" t="s">
+    <row r="1" spans="3:5" ht="20">
+      <c r="C1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="3:5" ht="20">
+      <c r="C2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="3:5" ht="20">
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="3:5" ht="20">
+      <c r="C4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="3:5" ht="20">
+      <c r="C5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="15" t="s">
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="D8" s="23">
+        <v>0.5149000883</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1.30269527E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.518838048</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1.5824079500000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" ht="21">
-      <c r="C8" s="6">
+      <c r="D10" s="23">
+        <v>0.51584398750000005</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1.5321970000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.51757502560000002</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2.2359967200000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.51187896730000004</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1.57710314E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.51503300669999996</v>
+      </c>
+      <c r="E13" s="23">
+        <v>7.2720051000000003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.51409399509999998</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1.4729023000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.52050793169999998</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.1518001599999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="1">
+        <v>9</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0.51056897639999999</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1.4546036700000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.51930701729999995</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1.6765952099999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="23">
+      <c r="C18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9">
+        <f>AVERAGE(D8:D17)</f>
+        <v>0.51585470438999992</v>
+      </c>
+      <c r="E18" s="10">
+        <f>AVERAGE(E8:E17)</f>
+        <v>1.4713501930000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="23">
+      <c r="C19" s="5"/>
+      <c r="D19" s="16">
+        <f>D18/E18</f>
+        <v>35.059954240954781</v>
+      </c>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="3:5" ht="23">
+      <c r="C20" s="2"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="3:5" ht="20">
+      <c r="C21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="3:5" ht="20">
+      <c r="C22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="3:5" ht="20">
+      <c r="C23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="3:5" ht="20">
+      <c r="C24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="3:5" ht="20">
+      <c r="C25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
-        <v>0.454496026</v>
-      </c>
-      <c r="E8" s="11">
-        <v>8.7809559999999995E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="21">
-      <c r="C9" s="6">
+      <c r="D29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
-        <v>0.46552395819999998</v>
-      </c>
-      <c r="E9" s="11">
-        <v>8.949041E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="21">
-      <c r="C10" s="6">
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0.21809995169999999</v>
+      </c>
+      <c r="E30" s="23">
+        <v>1.4382004699999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="23">
+        <v>0.23578894140000001</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1.4235973400000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="10">
-        <v>0.45322000979999999</v>
-      </c>
-      <c r="E10" s="11">
-        <v>9.2697139999999999E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="21">
-      <c r="C11" s="6">
+      <c r="D32" s="23">
+        <v>0.22861707210000001</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1.56229734E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="10">
-        <v>0.44189894200000002</v>
-      </c>
-      <c r="E11" s="11">
-        <v>8.9001659999999997E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="21">
-      <c r="C12" s="6">
+      <c r="D33" s="23">
+        <v>0.2267819643</v>
+      </c>
+      <c r="E33" s="23">
+        <v>2.3264050500000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="10">
-        <v>0.46169805530000002</v>
-      </c>
-      <c r="E12" s="11">
-        <v>8.770227E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="21">
-      <c r="C13" s="6">
+      <c r="D34" s="23">
+        <v>0.22949397560000001</v>
+      </c>
+      <c r="E34" s="23">
+        <v>2.3671030999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="10">
-        <v>0.4785600901</v>
-      </c>
-      <c r="E13" s="11">
-        <v>9.5796589999999995E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="21">
-      <c r="C14" s="6">
+      <c r="D35" s="23">
+        <v>0.21338403219999999</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1.61540508E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="10">
-        <v>0.45213496689999999</v>
-      </c>
-      <c r="E14" s="11">
-        <v>9.01103E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="21">
-      <c r="C15" s="6">
+      <c r="D36" s="23">
+        <v>0.23545002940000001</v>
+      </c>
+      <c r="E36" s="23">
+        <v>1.27199888E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="1">
         <v>8</v>
       </c>
-      <c r="D15" s="10">
-        <v>0.44322800639999999</v>
-      </c>
-      <c r="E15" s="11">
-        <v>8.809566E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="21">
-      <c r="C16" s="6">
+      <c r="D37" s="23">
+        <v>0.22382903100000001</v>
+      </c>
+      <c r="E37" s="23">
+        <v>1.4426946600000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="1">
         <v>9</v>
       </c>
-      <c r="D16" s="10">
-        <v>0.45294702050000002</v>
-      </c>
-      <c r="E16" s="11">
-        <v>9.3305109999999999E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="21">
-      <c r="C17" s="6">
+      <c r="D38" s="23">
+        <v>0.24159610270000001</v>
+      </c>
+      <c r="E38" s="23">
+        <v>1.37070417E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="1">
         <v>10</v>
       </c>
-      <c r="D17" s="10">
-        <v>0.46349799629999999</v>
-      </c>
-      <c r="E17" s="11">
-        <v>8.8298320000000001E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="23">
-      <c r="C18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="18">
-        <f>AVERAGE(D8:D17)</f>
-        <v>0.45672050715000001</v>
-      </c>
-      <c r="E18" s="19">
-        <f>AVERAGE(E8:E17)</f>
-        <v>9.023070199999999E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="23">
-      <c r="C19" s="12"/>
-      <c r="D19" s="13">
-        <f>D18/E18</f>
-        <v>506.16973715886644</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="3" t="s">
+      <c r="D39" s="23">
+        <v>0.22255599500000001</v>
+      </c>
+      <c r="E39" s="23">
+        <v>1.6030073200000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="23">
+      <c r="C40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
+        <f>AVERAGE(D30:D39)</f>
+        <v>0.22755970954000002</v>
+      </c>
+      <c r="E40" s="10">
+        <f>AVERAGE(E30:E39)</f>
+        <v>1.6421413409999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="23">
+      <c r="C41" s="5"/>
+      <c r="D41" s="16">
+        <f>D40/E40</f>
+        <v>13.857498368649866</v>
+      </c>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="44" spans="3:5" ht="20">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="3:5" ht="30">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="21">
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0.14587700370000001</v>
-      </c>
-      <c r="E25" s="11">
-        <v>8.831024E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="21">
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.18163204190000001</v>
-      </c>
-      <c r="E26" s="11">
-        <v>9.6595290000000005E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="21">
-      <c r="C27" s="6">
-        <v>3</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.1688379049</v>
-      </c>
-      <c r="E27" s="11">
-        <v>8.8500980000000003E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="21">
-      <c r="C28" s="6">
-        <v>4</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.15753102299999999</v>
-      </c>
-      <c r="E28" s="11">
-        <v>8.5699560000000003E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="21">
-      <c r="C29" s="6">
-        <v>5</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.15059399600000001</v>
-      </c>
-      <c r="E29" s="11">
-        <v>9.1290469999999999E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="21">
-      <c r="C30" s="6">
-        <v>6</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0.16861796379999999</v>
-      </c>
-      <c r="E30" s="11">
-        <v>8.5699560000000003E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="21">
-      <c r="C31" s="6">
-        <v>7</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.1827119589</v>
-      </c>
-      <c r="E31" s="11">
-        <v>8.7893010000000002E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="21">
-      <c r="C32" s="6">
-        <v>8</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.17100799080000001</v>
-      </c>
-      <c r="E32" s="11">
-        <v>8.5997579999999997E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" ht="21">
-      <c r="C33" s="6">
-        <v>9</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.16350007059999999</v>
-      </c>
-      <c r="E33" s="11">
-        <v>8.9502329999999999E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="21">
-      <c r="C34" s="6">
-        <v>10</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.15591907499999999</v>
-      </c>
-      <c r="E34" s="11">
-        <v>8.7499620000000002E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="23">
-      <c r="C35" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="18">
-        <f>AVERAGE(D25:D34)</f>
-        <v>0.16462290285999998</v>
-      </c>
-      <c r="E35" s="19">
-        <f>AVERAGE(E25:E34)</f>
-        <v>8.8698864000000006E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" ht="23">
-      <c r="C36" s="12"/>
-      <c r="D36" s="13">
-        <f>D35/E35</f>
-        <v>185.59753241033613</v>
-      </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="39" spans="3:5" ht="20">
-      <c r="C39" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="3:5" ht="30">
-      <c r="C40" s="20">
-        <f>D18/E35</f>
-        <v>514.9113377032653</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="23"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="23"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C42:E42"/>
+  <mergeCells count="8">
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C47:E47"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C44:E44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>